--- a/nts.uk/pr/file/nts.uk.pr.file.infra/src/main/resources/report/qpp021.xlsx
+++ b/nts.uk/pr/file/nts.uk.pr.file.infra/src/main/resources/report/qpp021.xlsx
@@ -24,10 +24,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&amp;=PaymentDataHeader.personId(bean)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&amp;=PaymentDataHeader.personName(bean)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -48,6 +44,10 @@
   </si>
   <si>
     <t>社員名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&amp;=PaymentDataHeader.employeeCode(bean)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -596,7 +596,7 @@
   <dimension ref="A1:AE56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F6" sqref="F6:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -666,13 +666,13 @@
     </row>
     <row r="5" spans="1:31" ht="24.75" customHeight="1">
       <c r="B5" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
@@ -681,7 +681,7 @@
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
       <c r="M5" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N5" s="19"/>
       <c r="O5" s="19"/>
@@ -705,7 +705,7 @@
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
@@ -714,12 +714,12 @@
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
       <c r="M6" s="16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
       <c r="Q6" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R6" s="14"/>
       <c r="S6" s="14"/>
